--- a/file/TGE-412-HualienHotel.xlsx
+++ b/file/TGE-412-HualienHotel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B28320-5F02-9443-9B3E-E0363EDCEB4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CDB9F5-3A20-ED4E-8A92-926B99C232CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21620" yWindow="6280" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="31880" yWindow="8680" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,10 @@
   </si>
   <si>
     <t>瑞穗鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶谷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1032,6 +1036,11 @@
         <v>62</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
